--- a/StructureDefinition-ext-R5-SpecimenDefinition.typeTested.xlsx
+++ b/StructureDefinition-ext-R5-SpecimenDefinition.typeTested.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4010" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4010" uniqueCount="362">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,15 +449,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The type of specimen conditioned in a container for lab testing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-v2-0487-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:preference</t>
   </si>
   <si>
@@ -493,15 +484,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Degree of preference of a type of conditioned specimen.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-specimen-contained-preference-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:container</t>
   </si>
   <si>
@@ -570,12 +552,6 @@
     <t>Extension.extension.extension.value[x]</t>
   </si>
   <si>
-    <t>SCT 32039001 |Glass|, 61088005 |Plastic|, 425620007 |Metal|</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-container-material-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:container.extension:type</t>
   </si>
   <si>
@@ -604,12 +580,6 @@
     <t>Extension.extension:container.extension:type.value[x]</t>
   </si>
   <si>
-    <t>SCT descendants of 706041008 |Device for body fluid and tissue collection/transfer/processing (physical object)|</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-specimen-container-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:container.extension:cap</t>
   </si>
   <si>
@@ -641,12 +611,6 @@
     <t>Extension.extension:container.extension:cap.value[x]</t>
   </si>
   <si>
-    <t>Color of the container cap.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-container-cap-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:container.extension:description</t>
   </si>
   <si>
@@ -713,7 +677,7 @@
     <t>Extension.extension:container.extension:capacity.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -750,7 +714,7 @@
     <t>Extension.extension:container.extension:minimumVolume.value[x]</t>
   </si>
   <si>
-    <t>Quantity {SimpleQuantity|4.0.1}
+    <t>Quantity {SimpleQuantity}
 string</t>
   </si>
   <si>
@@ -812,7 +776,7 @@
     <t>Extension.extension.extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-SubstanceDefinition-for-SubstanceSpecification|0.0.1-snapshot-3|SubstanceSpecification|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-SubstanceDefinition-for-SubstanceSpecification|SubstanceSpecification)
 </t>
   </si>
   <si>
@@ -1003,12 +967,6 @@
     <t>Extension.extension:rejectionCriterion.value[x]</t>
   </si>
   <si>
-    <t>Criterion for rejection of the specimen by laboratory.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-rejection-criteria-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:handling</t>
   </si>
   <si>
@@ -1062,12 +1020,6 @@
     <t>Extension.extension:handling.extension:temperatureQualifier.value[x]</t>
   </si>
   <si>
-    <t>Set of handling instructions prior testing of the specimen.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-handling-condition-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:handling.extension:temperatureRange</t>
   </si>
   <si>
@@ -1203,12 +1155,6 @@
   </si>
   <si>
     <t>Extension.extension:testingDestination.value[x]</t>
-  </si>
-  <si>
-    <t>Codes specifying where the specimen will be tested.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-diagnostic-service-sections-for-R4</t>
   </si>
 </sst>
 </file>
@@ -1558,8 +1504,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="91.59765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="69.125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2998,13 +2944,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -3042,13 +2988,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3073,14 +3019,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3149,7 +3095,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -3252,7 +3198,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -3357,7 +3303,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -3400,7 +3346,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3462,7 +3408,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -3488,13 +3434,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3521,13 +3467,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3565,13 +3511,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3596,14 +3542,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3672,7 +3618,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3775,7 +3721,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3878,13 +3824,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3909,16 +3855,16 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3987,10 +3933,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4090,10 +4036,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4195,10 +4141,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4238,7 +4184,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -4300,10 +4246,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4329,13 +4275,13 @@
         <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4361,13 +4307,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4405,7 +4351,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
@@ -4436,14 +4382,14 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4512,10 +4458,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4615,10 +4561,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4720,10 +4666,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4763,7 +4709,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4825,10 +4771,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4854,10 +4800,10 @@
         <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4884,13 +4830,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4928,13 +4874,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4959,14 +4905,14 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5035,10 +4981,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5138,10 +5084,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5243,10 +5189,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5286,7 +5232,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -5348,10 +5294,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5377,10 +5323,10 @@
         <v>136</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5407,13 +5353,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -5451,13 +5397,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5482,14 +5428,14 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5558,10 +5504,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5661,10 +5607,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5766,10 +5712,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5809,7 +5755,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5871,10 +5817,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5897,13 +5843,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5974,13 +5920,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -6005,14 +5951,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6081,10 +6027,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6184,10 +6130,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6289,10 +6235,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6332,7 +6278,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6394,10 +6340,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6420,13 +6366,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6497,13 +6443,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6528,14 +6474,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6604,10 +6550,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6707,10 +6653,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6812,10 +6758,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6855,7 +6801,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6917,10 +6863,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6943,13 +6889,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7020,13 +6966,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -7051,14 +6997,14 @@
         <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7127,10 +7073,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7230,10 +7176,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7333,13 +7279,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>77</v>
@@ -7364,14 +7310,14 @@
         <v>93</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -7440,10 +7386,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7543,10 +7489,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7648,10 +7594,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7691,7 +7637,7 @@
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>77</v>
@@ -7753,10 +7699,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7779,13 +7725,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -7856,10 +7802,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7899,7 +7845,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -7961,10 +7907,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7987,13 +7933,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8064,13 +8010,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -8095,14 +8041,14 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8171,10 +8117,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8274,10 +8220,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8379,10 +8325,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8422,7 +8368,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8484,10 +8430,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8510,13 +8456,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8587,7 +8533,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -8630,7 +8576,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8692,7 +8638,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>122</v>
@@ -8718,13 +8664,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8795,13 +8741,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8826,14 +8772,14 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8902,7 +8848,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>105</v>
@@ -9005,7 +8951,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>107</v>
@@ -9110,7 +9056,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>113</v>
@@ -9153,7 +9099,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9215,7 +9161,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>122</v>
@@ -9241,13 +9187,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9318,13 +9264,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9349,14 +9295,14 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9425,7 +9371,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>105</v>
@@ -9528,7 +9474,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>107</v>
@@ -9633,7 +9579,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>113</v>
@@ -9676,7 +9622,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9738,7 +9684,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>122</v>
@@ -9764,13 +9710,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9841,13 +9787,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -9872,14 +9818,14 @@
         <v>93</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -9948,7 +9894,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>105</v>
@@ -10051,7 +9997,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>107</v>
@@ -10156,7 +10102,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>113</v>
@@ -10199,7 +10145,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10261,7 +10207,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>122</v>
@@ -10290,10 +10236,10 @@
         <v>123</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10364,13 +10310,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10395,14 +10341,14 @@
         <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10471,7 +10417,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>105</v>
@@ -10574,7 +10520,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>107</v>
@@ -10679,7 +10625,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>113</v>
@@ -10722,7 +10668,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -10784,7 +10730,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>122</v>
@@ -10813,10 +10759,10 @@
         <v>136</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -10843,13 +10789,13 @@
         <v>77</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>313</v>
+        <v>77</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>77</v>
@@ -10887,13 +10833,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -10918,14 +10864,14 @@
         <v>93</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -10994,7 +10940,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>105</v>
@@ -11097,7 +11043,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>107</v>
@@ -11200,13 +11146,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11231,14 +11177,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11307,10 +11253,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11410,10 +11356,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11515,10 +11461,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11558,7 +11504,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11620,10 +11566,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11649,10 +11595,10 @@
         <v>136</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11679,13 +11625,13 @@
         <v>77</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>77</v>
@@ -11723,13 +11669,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -11754,14 +11700,14 @@
         <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -11830,10 +11776,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -11933,10 +11879,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12038,10 +11984,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12081,7 +12027,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12143,10 +12089,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12169,13 +12115,13 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12246,13 +12192,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12277,14 +12223,14 @@
         <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12353,10 +12299,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12456,10 +12402,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12561,10 +12507,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12604,7 +12550,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12666,10 +12612,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12692,13 +12638,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -12769,13 +12715,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -12800,14 +12746,14 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -12876,10 +12822,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -12979,10 +12925,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13084,10 +13030,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13127,7 +13073,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13189,10 +13135,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13215,13 +13161,13 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13292,7 +13238,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>113</v>
@@ -13335,7 +13281,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -13397,7 +13343,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>122</v>
@@ -13423,13 +13369,13 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -13500,13 +13446,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>77</v>
@@ -13531,14 +13477,14 @@
         <v>93</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>77</v>
@@ -13607,7 +13553,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>105</v>
@@ -13710,7 +13656,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>107</v>
@@ -13815,7 +13761,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>113</v>
@@ -13858,7 +13804,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>77</v>
@@ -13920,7 +13866,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>122</v>
@@ -13949,10 +13895,10 @@
         <v>136</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -13979,13 +13925,13 @@
         <v>77</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>378</v>
+        <v>77</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>77</v>
@@ -14154,13 +14100,13 @@
         <v>77</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
